--- a/PTBR/Lang/PTBR/Game/Person.xlsx
+++ b/PTBR/Lang/PTBR/Game/Person.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1C7FE4-80E0-47DD-B9BF-6383001B546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6B23EB-FCAE-436C-940C-9590782EFFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1440" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="134">
   <si>
     <t>id</t>
   </si>
@@ -368,13 +368,70 @@
   </si>
   <si>
     <t>bunny2</t>
+  </si>
+  <si>
+    <t>kettle_eye</t>
+  </si>
+  <si>
+    <t>EA 23.204</t>
+  </si>
+  <si>
+    <t>sorin</t>
+  </si>
+  <si>
+    <t>Sorin</t>
+  </si>
+  <si>
+    <t>ソリン</t>
+  </si>
+  <si>
+    <t>issizzle</t>
+  </si>
+  <si>
+    <t>Issizzle</t>
+  </si>
+  <si>
+    <t>イスシズル</t>
+  </si>
+  <si>
+    <t>vishnu</t>
+  </si>
+  <si>
+    <t>EA 23.220</t>
+  </si>
+  <si>
+    <t>VISHNU</t>
+  </si>
+  <si>
+    <t>VTX-09</t>
+  </si>
+  <si>
+    <t>az</t>
+  </si>
+  <si>
+    <t>EA 23.246</t>
+  </si>
+  <si>
+    <t>Azrasizzle</t>
+  </si>
+  <si>
+    <t>アズラシズル</t>
+  </si>
+  <si>
+    <t>Inpure</t>
+  </si>
+  <si>
+    <t>不浄なるもの</t>
+  </si>
+  <si>
+    <t>Impuro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -745,25 +802,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.75" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="8" width="16" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.75" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -798,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -815,7 +872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -841,7 +898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -858,7 +915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -884,7 +941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -901,7 +958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -918,7 +975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -935,7 +992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -952,7 +1009,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -969,7 +1026,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -986,7 +1043,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1003,7 +1060,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1020,7 +1077,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1037,7 +1094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1054,7 +1111,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1071,7 +1128,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1088,7 +1145,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1105,7 +1162,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1122,7 +1179,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -1139,7 +1196,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1165,7 +1222,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -1182,7 +1239,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -1190,7 +1247,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -1207,7 +1264,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -1224,7 +1281,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -1241,7 +1298,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -1258,7 +1315,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -1275,7 +1332,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1292,7 +1349,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -1309,7 +1366,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -1326,7 +1383,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>107</v>
       </c>
@@ -1343,7 +1400,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -1360,7 +1417,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -1375,6 +1432,109 @@
       </c>
       <c r="E35" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39" t="s">
+        <v>126</v>
+      </c>
+      <c r="J39" t="s">
+        <v>126</v>
+      </c>
+      <c r="K39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" t="s">
+        <v>133</v>
+      </c>
+      <c r="J40" t="s">
+        <v>131</v>
+      </c>
+      <c r="K40" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/PTBR/Lang/PTBR/Game/Person.xlsx
+++ b/PTBR/Lang/PTBR/Game/Person.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6B23EB-FCAE-436C-940C-9590782EFFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E19C19-87A0-4B48-BA8E-742A50ED7DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1440" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -805,22 +805,22 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="8" width="16" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -855,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -872,214 +872,214 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>130</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>96</v>
@@ -1094,451 +1094,455 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B29" t="s">
         <v>99</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C29" t="s">
         <v>50</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D29" t="s">
         <v>50</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>59</v>
       </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
         <v>60</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D34" t="s">
         <v>60</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s">
         <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="I38" t="s">
+        <v>126</v>
+      </c>
+      <c r="J38" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="I39" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="J39" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="K39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" t="s">
-        <v>130</v>
-      </c>
-      <c r="I40" t="s">
-        <v>133</v>
-      </c>
-      <c r="J40" t="s">
-        <v>131</v>
-      </c>
-      <c r="K40" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:K2" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K40">
+      <sortCondition ref="D2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PTBR/Lang/PTBR/Game/Person.xlsx
+++ b/PTBR/Lang/PTBR/Game/Person.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E19C19-87A0-4B48-BA8E-742A50ED7DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B42C60A-859B-46E9-B74D-DD4E1F3BAF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2130" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -340,9 +340,6 @@
     <t>O Senhor de Mysilia</t>
   </si>
   <si>
-    <t>Admiradores de Melvin.</t>
-  </si>
-  <si>
     <t>Contadora de Histórias de Olvina</t>
   </si>
   <si>
@@ -425,6 +422,9 @@
   </si>
   <si>
     <t>Impuro</t>
+  </si>
+  <si>
+    <t>Admiradores de Melvin</t>
   </si>
 </sst>
 </file>
@@ -806,7 +806,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,28 +891,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" t="s">
         <v>127</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>128</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
         <v>129</v>
       </c>
-      <c r="D5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" t="s">
         <v>130</v>
       </c>
-      <c r="I5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>131</v>
-      </c>
-      <c r="K5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -934,36 +934,36 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
         <v>111</v>
       </c>
-      <c r="B7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
         <v>112</v>
-      </c>
-      <c r="D7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" t="s">
         <v>112</v>
-      </c>
-      <c r="D8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1068,7 +1068,7 @@
         <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J14" t="s">
         <v>24</v>
@@ -1147,19 +1147,19 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
         <v>107</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>108</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
         <v>109</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1215,19 +1215,19 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
         <v>120</v>
       </c>
-      <c r="B23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" t="s">
         <v>121</v>
-      </c>
-      <c r="D23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1292,10 +1292,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" t="s">
         <v>115</v>
-      </c>
-      <c r="B27" t="s">
-        <v>116</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -1366,7 +1366,7 @@
         <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
         <v>84</v>
@@ -1383,7 +1383,7 @@
         <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D32" t="s">
         <v>84</v>
@@ -1454,19 +1454,19 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" t="s">
         <v>117</v>
       </c>
-      <c r="B36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" t="s">
         <v>118</v>
-      </c>
-      <c r="D36" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1488,28 +1488,28 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
         <v>123</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>124</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" t="s">
         <v>125</v>
       </c>
-      <c r="D38" t="s">
+      <c r="J38" t="s">
         <v>125</v>
       </c>
-      <c r="E38" t="s">
+      <c r="K38" t="s">
         <v>125</v>
-      </c>
-      <c r="I38" t="s">
-        <v>126</v>
-      </c>
-      <c r="J38" t="s">
-        <v>126</v>
-      </c>
-      <c r="K38" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">

--- a/PTBR/Lang/PTBR/Game/Person.xlsx
+++ b/PTBR/Lang/PTBR/Game/Person.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B42C60A-859B-46E9-B74D-DD4E1F3BAF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869598C1-B0AA-4D27-A1DE-75ED52BFCC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2130" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -806,7 +806,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
